--- a/data/middle_school/data.xlsx
+++ b/data/middle_school/data.xlsx
@@ -604,7 +604,7 @@
         <v>087-889-0131</v>
       </c>
       <c r="G8" t="str">
-        <v>http://www.edu-tens.net/tyuHP/ryuunHP/index.htm</v>
+        <v>http://www.edu-tens.net/tyuHP/ryuunHP/</v>
       </c>
       <c r="H8" t="str">
         <v/>

--- a/data/middle_school/data.xlsx
+++ b/data/middle_school/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1130,9 +1130,29 @@
         <v/>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>29</v>
+      </c>
+      <c r="B29" t="str">
+        <v>34.34270611713106</v>
+      </c>
+      <c r="C29" t="str">
+        <v>133.9545587</v>
+      </c>
+      <c r="D29" t="str">
+        <v>高松市立下笠居中学校五色台分校</v>
+      </c>
+      <c r="E29" t="str">
+        <v>高松市中山町1501-192</v>
+      </c>
+      <c r="F29" t="str">
+        <v>087-811-6310</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H29"/>
   </ignoredErrors>
 </worksheet>
 </file>